--- a/2022/Symphony/Others/Profit/Boss Profit Calculation.xlsx
+++ b/2022/Symphony/Others/Profit/Boss Profit Calculation.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="July" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Mugdho Corporation</t>
   </si>
@@ -64,13 +65,43 @@
   </si>
   <si>
     <t>Samsung Net Profit</t>
+  </si>
+  <si>
+    <t>Date: 31.08.2022</t>
+  </si>
+  <si>
+    <t>Back Margin &amp; Quarter Margin</t>
+  </si>
+  <si>
+    <t>Symphony Sales Profit Aug'22</t>
+  </si>
+  <si>
+    <t>Realme Sales Profit Aug'22</t>
+  </si>
+  <si>
+    <t>Samsung Sales Profit Aug'22</t>
+  </si>
+  <si>
+    <t>Back Margin</t>
+  </si>
+  <si>
+    <t>Symphony Margin Boss (-)</t>
+  </si>
+  <si>
+    <t>Samsung Rose Mobile Price Increase Profit (-)</t>
+  </si>
+  <si>
+    <t>Mugdho Corporation Net Profit  Aug'22</t>
+  </si>
+  <si>
+    <t>Need to Pay =</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +131,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,8 +191,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -316,11 +393,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -357,6 +458,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,10 +476,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -660,167 +799,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C21"/>
+  <dimension ref="B1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="59" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="5.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="32.25" x14ac:dyDescent="0.5">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="29"/>
+      <c r="B3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6">
-        <v>286730</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="25">
-        <v>83260</v>
+        <v>17</v>
+      </c>
+      <c r="C4" s="32">
+        <v>238290.91740000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8">
+        <v>326252</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8">
-        <v>46277</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="2" t="s">
+      <c r="B6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
-        <f>SUM(C4:C6)</f>
-        <v>416267</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
-        <v>253478</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="12">
-        <v>35190</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="14">
-        <v>124173</v>
+      <c r="C6" s="49">
+        <f>SUM(C4:C5)</f>
+        <v>564542.91740000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="33">
+        <v>189811.35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="39">
+        <f>SUM(C8:C8)</f>
+        <v>189811.35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="41">
+        <v>28248</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2">
-        <f>SUM(C9:C11)</f>
-        <v>412841</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="16">
-        <v>72034</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="18">
-        <v>91646</v>
+      <c r="B12" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="43">
+        <v>220999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="45">
+        <f>SUM(C11:C12)</f>
+        <v>249247</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+    </row>
+    <row r="15" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="37">
+        <f>C6+C9+C13</f>
+        <v>1003601.2674</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="18">
-        <v>97239</v>
-      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="18">
-        <v>11295</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="20">
-        <v>-49237</v>
+      <c r="B17" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="47">
+        <v>326252</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="47">
+        <v>8070</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="2">
-        <f>SUM(C14:C18)</f>
-        <v>222977</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-    </row>
-    <row r="21" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="24">
-        <f>C7+C12+C19</f>
-        <v>1052085</v>
+      <c r="B19" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="35">
+        <f>C15-C17-C18</f>
+        <v>669279.26740000001</v>
       </c>
     </row>
   </sheetData>
@@ -831,4 +954,175 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="32.25" x14ac:dyDescent="0.5">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="31"/>
+    </row>
+    <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>286730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25">
+        <v>83260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8">
+        <v>46277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <f>SUM(B3:B5)</f>
+        <v>416267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+    </row>
+    <row r="8" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>253478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12">
+        <v>35190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="14">
+        <v>124173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <f>SUM(B8:B10)</f>
+        <v>412841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="16">
+        <v>72034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="18">
+        <v>91646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="18">
+        <v>97239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="18">
+        <v>11295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="20">
+        <v>-49237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <f>SUM(B13:B17)</f>
+        <v>222977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="24">
+        <f>B6+B11+B18</f>
+        <v>1052085</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2022/Symphony/Others/Profit/Boss Profit Calculation.xlsx
+++ b/2022/Symphony/Others/Profit/Boss Profit Calculation.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="July" sheetId="2" r:id="rId2"/>
+    <sheet name="August" sheetId="1" r:id="rId1"/>
+    <sheet name="Sep" sheetId="3" r:id="rId2"/>
+    <sheet name="July" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Mugdho Corporation</t>
   </si>
@@ -95,6 +96,33 @@
   </si>
   <si>
     <t>Need to Pay =</t>
+  </si>
+  <si>
+    <t>Symphony Sales Profit Sep'22</t>
+  </si>
+  <si>
+    <t>Realme Sales Profit Sep'22</t>
+  </si>
+  <si>
+    <t>Samsung Sales Profit Sep'22</t>
+  </si>
+  <si>
+    <t>Mugdho Corporation Net Profit  Sep'22</t>
+  </si>
+  <si>
+    <t>Date: 29.09.2022</t>
+  </si>
+  <si>
+    <t>TDS Tax July'22 (-)</t>
+  </si>
+  <si>
+    <t>TDS Tax Aug'22 (-)</t>
+  </si>
+  <si>
+    <t>Total Profit</t>
+  </si>
+  <si>
+    <t>A.M Tipu Boss F13 Demo</t>
   </si>
 </sst>
 </file>
@@ -421,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -464,18 +492,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,6 +528,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -801,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -818,22 +866,22 @@
   <sheetData>
     <row r="1" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:3" ht="32.25" x14ac:dyDescent="0.5">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="47"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="28">
         <v>238290.91740000001</v>
       </c>
     </row>
@@ -846,10 +894,10 @@
       </c>
     </row>
     <row r="6" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="45">
         <f>SUM(C4:C5)</f>
         <v>564542.91740000003</v>
       </c>
@@ -862,15 +910,15 @@
       <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="29">
         <v>189811.35</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="35">
         <f>SUM(C8:C8)</f>
         <v>189811.35</v>
       </c>
@@ -880,26 +928,26 @@
       <c r="C10" s="27"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="37">
         <v>28248</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="39">
         <v>220999</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="41">
         <f>SUM(C11:C12)</f>
         <v>249247</v>
       </c>
@@ -909,10 +957,10 @@
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="33">
         <f>C6+C9+C13</f>
         <v>1003601.2674</v>
       </c>
@@ -922,26 +970,26 @@
       <c r="C16" s="22"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="43">
         <v>326252</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="43">
         <v>8070</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="31">
         <f>C15-C17-C18</f>
         <v>669279.26740000001</v>
       </c>
@@ -958,10 +1006,196 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" ht="32.25" x14ac:dyDescent="0.5">
+      <c r="B2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="47"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="49"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="28">
+        <v>213664.04930000007</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8">
+        <v>90069</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="45">
+        <f>SUM(C4:C5)</f>
+        <v>303733.04930000007</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="29">
+        <v>124280.1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="35">
+        <f>SUM(C8:C8)</f>
+        <v>124280.1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="50">
+        <v>6336.7949999999983</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="51">
+        <v>63309</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="55">
+        <f>SUM(C11:C12)</f>
+        <v>69645.794999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="50">
+        <v>-23008</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="51">
+        <v>-23830</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="53">
+        <f>C13+C14+C15</f>
+        <v>22807.794999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+    </row>
+    <row r="18" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="33">
+        <f>C6+C9+C16</f>
+        <v>450820.94430000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="57">
+        <v>-13500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="31">
+        <f>C18+C20</f>
+        <v>437320.94430000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="1">
+        <v>430000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C24" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,16 +1205,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="32.25" x14ac:dyDescent="0.5">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
